--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -468,7 +468,7 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.449531827901751E-09</v>
+        <v>0.0006146299178131365</v>
       </c>
       <c r="D2">
-        <v>1.123204595998573E-08</v>
+        <v>0.00100555262414459</v>
       </c>
       <c r="E2">
-        <v>1.083795697254253E-05</v>
+        <v>0.005977043227676671</v>
       </c>
       <c r="F2">
-        <v>2.713385072183883E-13</v>
+        <v>7.89989796556867E-06</v>
       </c>
       <c r="G2">
-        <v>5.102585021177219E-13</v>
+        <v>0.0001345461069606202</v>
       </c>
       <c r="H2">
-        <v>2.965609979810324E-10</v>
+        <v>0.0003738900082952412</v>
       </c>
       <c r="I2">
-        <v>1.135163074650336E-10</v>
+        <v>0.0003774498152946393</v>
       </c>
       <c r="J2">
-        <v>0.00208412112708789</v>
+        <v>0.04355212790027463</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.449531827901751E-09</v>
+        <v>0.0006146299178131365</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.84297022087776E-14</v>
+        <v>4.063456450764669E-05</v>
       </c>
       <c r="E3">
-        <v>3.843592111252292E-12</v>
+        <v>6.094034354298117E-05</v>
       </c>
       <c r="F3">
-        <v>2.891857309172963E-08</v>
+        <v>0.001114999255988236</v>
       </c>
       <c r="G3">
-        <v>0.0006173832491755959</v>
+        <v>0.01772953836585511</v>
       </c>
       <c r="H3">
-        <v>4.338672002912602E-05</v>
+        <v>0.005307711958360439</v>
       </c>
       <c r="I3">
-        <v>0.005209197752604755</v>
+        <v>0.03786307125248256</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.046377934521558E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.123204595998573E-08</v>
+        <v>0.00100555262414459</v>
       </c>
       <c r="C4">
-        <v>1.84297022087776E-14</v>
+        <v>4.063456450764669E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.07197814461324E-10</v>
+        <v>0.0001088682925265427</v>
       </c>
       <c r="F4">
-        <v>2.240017467070032E-07</v>
+        <v>0.001921991402907386</v>
       </c>
       <c r="G4">
-        <v>0.01280109233410465</v>
+        <v>0.07055977734899677</v>
       </c>
       <c r="H4">
-        <v>0.003758095863042543</v>
+        <v>0.03271040521784663</v>
       </c>
       <c r="I4">
-        <v>0.166644268946063</v>
+        <v>0.276545241403729</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.580285980296026E-06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.083795697254253E-05</v>
+        <v>0.005977043227676671</v>
       </c>
       <c r="C5">
-        <v>3.843592111252292E-12</v>
+        <v>6.094034354298117E-05</v>
       </c>
       <c r="D5">
-        <v>2.07197814461324E-10</v>
+        <v>0.0001088682925265427</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0002122525302596934</v>
+        <v>0.01479311122421745</v>
       </c>
       <c r="G5">
-        <v>0.0823866021956734</v>
+        <v>0.1785740125070734</v>
       </c>
       <c r="H5">
-        <v>0.01194358690647834</v>
+        <v>0.03890239127575845</v>
       </c>
       <c r="I5">
-        <v>0.001306446712247444</v>
+        <v>0.01754124521668543</v>
       </c>
       <c r="J5">
-        <v>4.373268813750997E-08</v>
+        <v>0.0002994448057775934</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.713385072183883E-13</v>
+        <v>7.89989796556867E-06</v>
       </c>
       <c r="C6">
-        <v>2.891857309172963E-08</v>
+        <v>0.001114999255988236</v>
       </c>
       <c r="D6">
-        <v>2.240017467070032E-07</v>
+        <v>0.001921991402907386</v>
       </c>
       <c r="E6">
-        <v>0.0002122525302596934</v>
+        <v>0.01479311122421745</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.121287507288571E-10</v>
+        <v>0.0002778684654920482</v>
       </c>
       <c r="H6">
-        <v>2.671053889180541E-08</v>
+        <v>0.0008276970178717757</v>
       </c>
       <c r="I6">
-        <v>4.616451221295392E-09</v>
+        <v>0.0007501979417108284</v>
       </c>
       <c r="J6">
-        <v>0.0361566484218474</v>
+        <v>0.1400394488238186</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.102585021177219E-13</v>
+        <v>0.0001345461069606202</v>
       </c>
       <c r="C7">
-        <v>0.0006173832491755959</v>
+        <v>0.01772953836585511</v>
       </c>
       <c r="D7">
-        <v>0.01280109233410465</v>
+        <v>0.07055977734899677</v>
       </c>
       <c r="E7">
-        <v>0.0823866021956734</v>
+        <v>0.1785740125070734</v>
       </c>
       <c r="F7">
-        <v>1.121287507288571E-10</v>
+        <v>0.0002778684654920482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5172988415951143</v>
+        <v>0.576352176787327</v>
       </c>
       <c r="I7">
-        <v>0.06064267097648335</v>
+        <v>0.1171891952575108</v>
       </c>
       <c r="J7">
-        <v>1.431299523346752E-12</v>
+        <v>1.651960642479189E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.965609979810324E-10</v>
+        <v>0.0003738900082952412</v>
       </c>
       <c r="C8">
-        <v>4.338672002912602E-05</v>
+        <v>0.005307711958360439</v>
       </c>
       <c r="D8">
-        <v>0.003758095863042543</v>
+        <v>0.03271040521784663</v>
       </c>
       <c r="E8">
-        <v>0.01194358690647834</v>
+        <v>0.03890239127575845</v>
       </c>
       <c r="F8">
-        <v>2.671053889180541E-08</v>
+        <v>0.0008276970178717757</v>
       </c>
       <c r="G8">
-        <v>0.5172988415951143</v>
+        <v>0.576352176787327</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.1176701259334669</v>
+        <v>0.1643198612393202</v>
       </c>
       <c r="J8">
-        <v>1.554312234475219E-15</v>
+        <v>4.573486762637913E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.135163074650336E-10</v>
+        <v>0.0003774498152946393</v>
       </c>
       <c r="C9">
-        <v>0.005209197752604755</v>
+        <v>0.03786307125248256</v>
       </c>
       <c r="D9">
-        <v>0.166644268946063</v>
+        <v>0.276545241403729</v>
       </c>
       <c r="E9">
-        <v>0.001306446712247444</v>
+        <v>0.01754124521668543</v>
       </c>
       <c r="F9">
-        <v>4.616451221295392E-09</v>
+        <v>0.0007501979417108284</v>
       </c>
       <c r="G9">
-        <v>0.06064267097648335</v>
+        <v>0.1171891952575108</v>
       </c>
       <c r="H9">
-        <v>0.1176701259334669</v>
+        <v>0.1643198612393202</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.338928967697939E-13</v>
+        <v>6.227957450199995E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00208412112708789</v>
+        <v>0.04355212790027463</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.046377934521558E-06</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.580285980296026E-06</v>
       </c>
       <c r="E10">
-        <v>4.373268813750997E-08</v>
+        <v>0.0002994448057775934</v>
       </c>
       <c r="F10">
-        <v>0.0361566484218474</v>
+        <v>0.1400394488238186</v>
       </c>
       <c r="G10">
-        <v>1.431299523346752E-12</v>
+        <v>1.651960642479189E-05</v>
       </c>
       <c r="H10">
-        <v>1.554312234475219E-15</v>
+        <v>4.573486762637913E-07</v>
       </c>
       <c r="I10">
-        <v>1.338928967697939E-13</v>
+        <v>6.227957450199995E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.170634634529432</v>
+        <v>4.39163682837729</v>
       </c>
       <c r="D2">
-        <v>5.812719692261263</v>
+        <v>4.137613859121849</v>
       </c>
       <c r="E2">
-        <v>4.446929738336713</v>
+        <v>3.235985276926669</v>
       </c>
       <c r="F2">
-        <v>7.520556285953187</v>
+        <v>6.852677697458215</v>
       </c>
       <c r="G2">
-        <v>7.427756083293698</v>
+        <v>5.200160487257003</v>
       </c>
       <c r="H2">
-        <v>6.436863398269327</v>
+        <v>4.651680606507575</v>
       </c>
       <c r="I2">
-        <v>6.593791916544777</v>
+        <v>4.646685882814401</v>
       </c>
       <c r="J2">
-        <v>3.094885987634702</v>
+        <v>2.218614161930542</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.170634634529432</v>
+        <v>-4.39163682837729</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.906403819489714</v>
+        <v>-5.871595826624412</v>
       </c>
       <c r="E3">
-        <v>-7.125073719661408</v>
+        <v>-5.640418800890285</v>
       </c>
       <c r="F3">
-        <v>-5.641209593901827</v>
+        <v>-4.084684305384862</v>
       </c>
       <c r="G3">
-        <v>-3.44673293159948</v>
+        <v>-2.686189487540148</v>
       </c>
       <c r="H3">
-        <v>-4.126781859258384</v>
+        <v>-3.295680067885364</v>
       </c>
       <c r="I3">
-        <v>-2.806698891928655</v>
+        <v>-2.292805681709737</v>
       </c>
       <c r="J3">
-        <v>-9.804318761419713</v>
+        <v>-8.186359055958665</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.812719692261263</v>
+        <v>-4.137613859121849</v>
       </c>
       <c r="C4">
-        <v>7.906403819489714</v>
+        <v>5.871595826624412</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.495813110353041</v>
+        <v>-5.316466346157775</v>
       </c>
       <c r="F4">
-        <v>-5.254355924002867</v>
+        <v>-3.80753795738485</v>
       </c>
       <c r="G4">
-        <v>-2.498638368408892</v>
+        <v>-1.957257955616752</v>
       </c>
       <c r="H4">
-        <v>-2.912060825731977</v>
+        <v>-2.369703172003818</v>
       </c>
       <c r="I4">
-        <v>-1.385173101727395</v>
+        <v>-1.132261632451688</v>
       </c>
       <c r="J4">
-        <v>-9.34762300825288</v>
+        <v>-7.901995129698549</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.446929738336713</v>
+        <v>-3.235985276926669</v>
       </c>
       <c r="C5">
-        <v>7.125073719661408</v>
+        <v>5.640418800890285</v>
       </c>
       <c r="D5">
-        <v>6.495813110353041</v>
+        <v>5.316466346157775</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.732620491755457</v>
+        <v>-2.778494520067667</v>
       </c>
       <c r="G5">
-        <v>1.740652753524045</v>
+        <v>1.416222743595438</v>
       </c>
       <c r="H5">
-        <v>2.523444366569135</v>
+        <v>2.278501878729416</v>
       </c>
       <c r="I5">
-        <v>3.233677316374541</v>
+        <v>2.691645161777819</v>
       </c>
       <c r="J5">
-        <v>-5.564841299684456</v>
+        <v>-4.769156356285747</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-7.520556285953187</v>
+        <v>-6.852677697458215</v>
       </c>
       <c r="C6">
-        <v>5.641209593901827</v>
+        <v>4.084684305384862</v>
       </c>
       <c r="D6">
-        <v>5.254355924002867</v>
+        <v>3.80753795738485</v>
       </c>
       <c r="E6">
-        <v>3.732620491755457</v>
+        <v>2.778494520067667</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.595782449988205</v>
+        <v>4.808920450074231</v>
       </c>
       <c r="H6">
-        <v>5.655777555335082</v>
+        <v>4.237677451224817</v>
       </c>
       <c r="I6">
-        <v>5.970283857025112</v>
+        <v>4.288399306094239</v>
       </c>
       <c r="J6">
-        <v>2.101071233764583</v>
+        <v>1.564406853889662</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-7.427756083293698</v>
+        <v>-5.200160487257003</v>
       </c>
       <c r="C7">
-        <v>3.44673293159948</v>
+        <v>2.686189487540148</v>
       </c>
       <c r="D7">
-        <v>2.498638368408892</v>
+        <v>1.957257955616752</v>
       </c>
       <c r="E7">
-        <v>-1.740652753524045</v>
+        <v>-1.416222743595438</v>
       </c>
       <c r="F7">
-        <v>-6.595782449988205</v>
+        <v>-4.808920450074231</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6479947223521295</v>
+        <v>0.572060260859764</v>
       </c>
       <c r="I7">
-        <v>1.880527759015286</v>
+        <v>1.66963749768312</v>
       </c>
       <c r="J7">
-        <v>-7.274348142128234</v>
+        <v>-6.400913647452762</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-6.436863398269327</v>
+        <v>-4.651680606507575</v>
       </c>
       <c r="C8">
-        <v>4.126781859258384</v>
+        <v>3.295680067885364</v>
       </c>
       <c r="D8">
-        <v>2.912060825731977</v>
+        <v>2.369703172003818</v>
       </c>
       <c r="E8">
-        <v>-2.523444366569135</v>
+        <v>-2.278501878729416</v>
       </c>
       <c r="F8">
-        <v>-5.655777555335082</v>
+        <v>-4.237677451224817</v>
       </c>
       <c r="G8">
-        <v>-0.6479947223521295</v>
+        <v>-0.572060260859764</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.567449001784222</v>
+        <v>1.467591446790241</v>
       </c>
       <c r="J8">
-        <v>-8.249291231070021</v>
+        <v>-8.778242410666815</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-6.593791916544777</v>
+        <v>-4.646685882814401</v>
       </c>
       <c r="C9">
-        <v>2.806698891928655</v>
+        <v>2.292805681709737</v>
       </c>
       <c r="D9">
-        <v>1.385173101727395</v>
+        <v>1.132261632451688</v>
       </c>
       <c r="E9">
-        <v>-3.233677316374541</v>
+        <v>-2.691645161777819</v>
       </c>
       <c r="F9">
-        <v>-5.970283857025112</v>
+        <v>-4.288399306094239</v>
       </c>
       <c r="G9">
-        <v>-1.880527759015286</v>
+        <v>-1.66963749768312</v>
       </c>
       <c r="H9">
-        <v>-1.567449001784222</v>
+        <v>-1.467591446790241</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.623197403007302</v>
+        <v>-7.002025826526746</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.094885987634702</v>
+        <v>-2.218614161930542</v>
       </c>
       <c r="C10">
-        <v>9.804318761419713</v>
+        <v>8.186359055958665</v>
       </c>
       <c r="D10">
-        <v>9.34762300825288</v>
+        <v>7.901995129698549</v>
       </c>
       <c r="E10">
-        <v>5.564841299684456</v>
+        <v>4.769156356285747</v>
       </c>
       <c r="F10">
-        <v>-2.101071233764583</v>
+        <v>-1.564406853889662</v>
       </c>
       <c r="G10">
-        <v>7.274348142128234</v>
+        <v>6.400913647452762</v>
       </c>
       <c r="H10">
-        <v>8.249291231070021</v>
+        <v>8.778242410666815</v>
       </c>
       <c r="I10">
-        <v>7.623197403007302</v>
+        <v>7.002025826526746</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.5491865430011136</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
         <v>1.337388535290631</v>
@@ -1480,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="F4">
         <v>0.9499616917794748</v>
@@ -1503,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>37.5</v>
@@ -1517,62 +1517,62 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>37.5</v>
       </c>
       <c r="F6">
-        <v>2.467652036887471</v>
+        <v>1.894804144796328</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>1.894804144796328</v>
+        <v>5.125631466033672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>12.5</v>
       </c>
       <c r="F8">
-        <v>5.125631466033672</v>
+        <v>2.467652036887471</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -468,7 +468,7 @@
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -555,19 +555,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -727,16 +727,16 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0006146299178131365</v>
+        <v>4.486368561607001E-05</v>
       </c>
       <c r="D2">
-        <v>0.00100555262414459</v>
+        <v>6.437187007990453E-05</v>
       </c>
       <c r="E2">
-        <v>0.005977043227676671</v>
+        <v>6.525290009640194E-05</v>
       </c>
       <c r="F2">
-        <v>7.89989796556867E-06</v>
+        <v>2.615414680384731E-07</v>
       </c>
       <c r="G2">
-        <v>0.0001345461069606202</v>
+        <v>7.077200804950223E-06</v>
       </c>
       <c r="H2">
-        <v>0.0003738900082952412</v>
+        <v>3.109485362529085E-06</v>
       </c>
       <c r="I2">
-        <v>0.0003774498152946393</v>
+        <v>4.671075287898674E-06</v>
       </c>
       <c r="J2">
-        <v>0.04355212790027463</v>
+        <v>8.193282308188721E-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0006146299178131365</v>
+        <v>4.486368561607001E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.063456450764669E-05</v>
+        <v>2.054674208551432E-10</v>
       </c>
       <c r="E3">
-        <v>6.094034354298117E-05</v>
+        <v>5.83406656318175E-11</v>
       </c>
       <c r="F3">
-        <v>0.001114999255988236</v>
+        <v>7.756401827707649E-05</v>
       </c>
       <c r="G3">
-        <v>0.01772953836585511</v>
+        <v>0.001492241042929665</v>
       </c>
       <c r="H3">
-        <v>0.005307711958360439</v>
+        <v>0.002872415209938417</v>
       </c>
       <c r="I3">
-        <v>0.03786307125248256</v>
+        <v>0.00322447293772643</v>
       </c>
       <c r="J3">
-        <v>1.046377934521558E-06</v>
+        <v>8.202424541137177E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00100555262414459</v>
+        <v>6.437187007990453E-05</v>
       </c>
       <c r="C4">
-        <v>4.063456450764669E-05</v>
+        <v>2.054674208551432E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0001088682925265427</v>
+        <v>0.4577729717491708</v>
       </c>
       <c r="F4">
-        <v>0.001921991402907386</v>
+        <v>0.0001150665708973264</v>
       </c>
       <c r="G4">
-        <v>0.07055977734899677</v>
+        <v>0.004051939878863431</v>
       </c>
       <c r="H4">
-        <v>0.03271040521784663</v>
+        <v>0.006992375074625912</v>
       </c>
       <c r="I4">
-        <v>0.276545241403729</v>
+        <v>0.008962078819365171</v>
       </c>
       <c r="J4">
-        <v>1.580285980296026E-06</v>
+        <v>0.0002120026199836644</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005977043227676671</v>
+        <v>6.525290009640194E-05</v>
       </c>
       <c r="C5">
-        <v>6.094034354298117E-05</v>
+        <v>5.83406656318175E-11</v>
       </c>
       <c r="D5">
-        <v>0.0001088682925265427</v>
+        <v>0.4577729717491708</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.01479311122421745</v>
+        <v>0.0001166329857738013</v>
       </c>
       <c r="G5">
-        <v>0.1785740125070734</v>
+        <v>0.004128898711049489</v>
       </c>
       <c r="H5">
-        <v>0.03890239127575845</v>
+        <v>0.007091282109453978</v>
       </c>
       <c r="I5">
-        <v>0.01754124521668543</v>
+        <v>0.009070778570019922</v>
       </c>
       <c r="J5">
-        <v>0.0002994448057775934</v>
+        <v>0.0002187344497934784</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.89989796556867E-06</v>
+        <v>2.615414680384731E-07</v>
       </c>
       <c r="C6">
-        <v>0.001114999255988236</v>
+        <v>7.756401827707649E-05</v>
       </c>
       <c r="D6">
-        <v>0.001921991402907386</v>
+        <v>0.0001150665708973264</v>
       </c>
       <c r="E6">
-        <v>0.01479311122421745</v>
+        <v>0.0001166329857738013</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0002778684654920482</v>
+        <v>1.486591734911613E-05</v>
       </c>
       <c r="H6">
-        <v>0.0008276970178717757</v>
+        <v>6.366459998297103E-06</v>
       </c>
       <c r="I6">
-        <v>0.0007501979417108284</v>
+        <v>1.023816146950018E-05</v>
       </c>
       <c r="J6">
-        <v>0.1400394488238186</v>
+        <v>0.0002228526554075572</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001345461069606202</v>
+        <v>7.077200804950223E-06</v>
       </c>
       <c r="C7">
-        <v>0.01772953836585511</v>
+        <v>0.001492241042929665</v>
       </c>
       <c r="D7">
-        <v>0.07055977734899677</v>
+        <v>0.004051939878863431</v>
       </c>
       <c r="E7">
-        <v>0.1785740125070734</v>
+        <v>0.004128898711049489</v>
       </c>
       <c r="F7">
-        <v>0.0002778684654920482</v>
+        <v>1.486591734911613E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.576352176787327</v>
+        <v>0.2640541051996004</v>
       </c>
       <c r="I7">
-        <v>0.1171891952575108</v>
+        <v>0.4623914347246783</v>
       </c>
       <c r="J7">
-        <v>1.651960642479189E-05</v>
+        <v>0.001803213785098956</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0003738900082952412</v>
+        <v>3.109485362529085E-06</v>
       </c>
       <c r="C8">
-        <v>0.005307711958360439</v>
+        <v>0.002872415209938417</v>
       </c>
       <c r="D8">
-        <v>0.03271040521784663</v>
+        <v>0.006992375074625912</v>
       </c>
       <c r="E8">
-        <v>0.03890239127575845</v>
+        <v>0.007091282109453978</v>
       </c>
       <c r="F8">
-        <v>0.0008276970178717757</v>
+        <v>6.366459998297103E-06</v>
       </c>
       <c r="G8">
-        <v>0.576352176787327</v>
+        <v>0.2640541051996004</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.1643198612393202</v>
+        <v>0.3302076987560851</v>
       </c>
       <c r="J8">
-        <v>4.573486762637913E-07</v>
+        <v>0.03794893573742497</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003774498152946393</v>
+        <v>4.671075287898674E-06</v>
       </c>
       <c r="C9">
-        <v>0.03786307125248256</v>
+        <v>0.00322447293772643</v>
       </c>
       <c r="D9">
-        <v>0.276545241403729</v>
+        <v>0.008962078819365171</v>
       </c>
       <c r="E9">
-        <v>0.01754124521668543</v>
+        <v>0.009070778570019922</v>
       </c>
       <c r="F9">
-        <v>0.0007501979417108284</v>
+        <v>1.023816146950018E-05</v>
       </c>
       <c r="G9">
-        <v>0.1171891952575108</v>
+        <v>0.4623914347246783</v>
       </c>
       <c r="H9">
-        <v>0.1643198612393202</v>
+        <v>0.3302076987560851</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6.227957450199995E-06</v>
+        <v>0.009657285137161242</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04355212790027463</v>
+        <v>8.193282308188721E-05</v>
       </c>
       <c r="C10">
-        <v>1.046377934521558E-06</v>
+        <v>8.202424541137177E-05</v>
       </c>
       <c r="D10">
-        <v>1.580285980296026E-06</v>
+        <v>0.0002120026199836644</v>
       </c>
       <c r="E10">
-        <v>0.0002994448057775934</v>
+        <v>0.0002187344497934784</v>
       </c>
       <c r="F10">
-        <v>0.1400394488238186</v>
+        <v>0.0002228526554075572</v>
       </c>
       <c r="G10">
-        <v>1.651960642479189E-05</v>
+        <v>0.001803213785098956</v>
       </c>
       <c r="H10">
-        <v>4.573486762637913E-07</v>
+        <v>0.03794893573742497</v>
       </c>
       <c r="I10">
-        <v>6.227957450199995E-06</v>
+        <v>0.009657285137161242</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.39163682837729</v>
+        <v>5.06641871421003</v>
       </c>
       <c r="D2">
-        <v>4.137613859121849</v>
+        <v>4.917336640144845</v>
       </c>
       <c r="E2">
-        <v>3.235985276926669</v>
+        <v>4.911734136774747</v>
       </c>
       <c r="F2">
-        <v>6.852677697458215</v>
+        <v>7.298558002415273</v>
       </c>
       <c r="G2">
-        <v>5.200160487257003</v>
+        <v>5.840563786133553</v>
       </c>
       <c r="H2">
-        <v>4.651680606507575</v>
+        <v>6.193630063250087</v>
       </c>
       <c r="I2">
-        <v>4.646685882814401</v>
+        <v>6.018184047445486</v>
       </c>
       <c r="J2">
-        <v>2.218614161930542</v>
+        <v>4.818020642994716</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.39163682837729</v>
+        <v>-5.06641871421003</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.871595826624412</v>
+        <v>-11.00546443028771</v>
       </c>
       <c r="E3">
-        <v>-5.640418800890285</v>
+        <v>-11.76211985683415</v>
       </c>
       <c r="F3">
-        <v>-4.084684305384862</v>
+        <v>-4.840563072156395</v>
       </c>
       <c r="G3">
-        <v>-2.686189487540148</v>
+        <v>-3.62670272397775</v>
       </c>
       <c r="H3">
-        <v>-3.295680067885364</v>
+        <v>-3.353536477188577</v>
       </c>
       <c r="I3">
-        <v>-2.292805681709737</v>
+        <v>-3.304886667638779</v>
       </c>
       <c r="J3">
-        <v>-8.186359055958665</v>
+        <v>-4.817561968458993</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.137613859121849</v>
+        <v>-4.917336640144845</v>
       </c>
       <c r="C4">
-        <v>5.871595826624412</v>
+        <v>11.00546443028771</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-5.316466346157775</v>
+        <v>0.7558219487381221</v>
       </c>
       <c r="F4">
-        <v>-3.80753795738485</v>
+        <v>-4.678514983905091</v>
       </c>
       <c r="G4">
-        <v>-1.957257955616752</v>
+        <v>-3.20831058819763</v>
       </c>
       <c r="H4">
-        <v>-2.369703172003818</v>
+        <v>-2.97469905367916</v>
       </c>
       <c r="I4">
-        <v>-1.132261632451688</v>
+        <v>-2.866788474819637</v>
       </c>
       <c r="J4">
-        <v>-7.901995129698549</v>
+        <v>-4.428136100645927</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.235985276926669</v>
+        <v>-4.911734136774747</v>
       </c>
       <c r="C5">
-        <v>5.640418800890285</v>
+        <v>11.76211985683415</v>
       </c>
       <c r="D5">
-        <v>5.316466346157775</v>
+        <v>-0.7558219487381221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.778494520067667</v>
+        <v>-4.672967242970048</v>
       </c>
       <c r="G5">
-        <v>1.416222743595438</v>
+        <v>-3.200326763781352</v>
       </c>
       <c r="H5">
-        <v>2.278501878729416</v>
+        <v>-2.968622232303721</v>
       </c>
       <c r="I5">
-        <v>2.691645161777819</v>
+        <v>-2.861516226887308</v>
       </c>
       <c r="J5">
-        <v>-4.769156356285747</v>
+        <v>-4.415341459926876</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-6.852677697458215</v>
+        <v>-7.298558002415273</v>
       </c>
       <c r="C6">
-        <v>4.084684305384862</v>
+        <v>4.840563072156395</v>
       </c>
       <c r="D6">
-        <v>3.80753795738485</v>
+        <v>4.678514983905091</v>
       </c>
       <c r="E6">
-        <v>2.778494520067667</v>
+        <v>4.672967242970048</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.808920450074231</v>
+        <v>5.526716788187605</v>
       </c>
       <c r="H6">
-        <v>4.237677451224817</v>
+        <v>5.885668889326531</v>
       </c>
       <c r="I6">
-        <v>4.288399306094239</v>
+        <v>5.68390361193208</v>
       </c>
       <c r="J6">
-        <v>1.564406853889662</v>
+        <v>4.407707362862843</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.200160487257003</v>
+        <v>-5.840563786133553</v>
       </c>
       <c r="C7">
-        <v>2.686189487540148</v>
+        <v>3.62670272397775</v>
       </c>
       <c r="D7">
-        <v>1.957257955616752</v>
+        <v>3.20831058819763</v>
       </c>
       <c r="E7">
-        <v>-1.416222743595438</v>
+        <v>3.200326763781352</v>
       </c>
       <c r="F7">
-        <v>-4.808920450074231</v>
+        <v>-5.526716788187605</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.572060260859764</v>
+        <v>-1.146133240948477</v>
       </c>
       <c r="I7">
-        <v>1.66963749768312</v>
+        <v>0.747983753668888</v>
       </c>
       <c r="J7">
-        <v>-6.400913647452762</v>
+        <v>-3.548111685965067</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-4.651680606507575</v>
+        <v>-6.193630063250087</v>
       </c>
       <c r="C8">
-        <v>3.295680067885364</v>
+        <v>3.353536477188577</v>
       </c>
       <c r="D8">
-        <v>2.369703172003818</v>
+        <v>2.97469905367916</v>
       </c>
       <c r="E8">
-        <v>-2.278501878729416</v>
+        <v>2.968622232303721</v>
       </c>
       <c r="F8">
-        <v>-4.237677451224817</v>
+        <v>-5.885668889326531</v>
       </c>
       <c r="G8">
-        <v>-0.572060260859764</v>
+        <v>1.146133240948477</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.467591446790241</v>
+        <v>0.9957304638945881</v>
       </c>
       <c r="J8">
-        <v>-8.778242410666815</v>
+        <v>-2.208270842328073</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.646685882814401</v>
+        <v>-6.018184047445486</v>
       </c>
       <c r="C9">
-        <v>2.292805681709737</v>
+        <v>3.304886667638779</v>
       </c>
       <c r="D9">
-        <v>1.132261632451688</v>
+        <v>2.866788474819637</v>
       </c>
       <c r="E9">
-        <v>-2.691645161777819</v>
+        <v>2.861516226887308</v>
       </c>
       <c r="F9">
-        <v>-4.288399306094239</v>
+        <v>-5.68390361193208</v>
       </c>
       <c r="G9">
-        <v>-1.66963749768312</v>
+        <v>-0.747983753668888</v>
       </c>
       <c r="H9">
-        <v>-1.467591446790241</v>
+        <v>-0.9957304638945881</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.002025826526746</v>
+        <v>-2.834068499340236</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.218614161930542</v>
+        <v>-4.818020642994716</v>
       </c>
       <c r="C10">
-        <v>8.186359055958665</v>
+        <v>4.817561968458993</v>
       </c>
       <c r="D10">
-        <v>7.901995129698549</v>
+        <v>4.428136100645927</v>
       </c>
       <c r="E10">
-        <v>4.769156356285747</v>
+        <v>4.415341459926876</v>
       </c>
       <c r="F10">
-        <v>-1.564406853889662</v>
+        <v>-4.407707362862843</v>
       </c>
       <c r="G10">
-        <v>6.400913647452762</v>
+        <v>3.548111685965067</v>
       </c>
       <c r="H10">
-        <v>8.778242410666815</v>
+        <v>2.208270842328073</v>
       </c>
       <c r="I10">
-        <v>7.002025826526746</v>
+        <v>2.834068499340236</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1452,27 +1452,27 @@
         <v>62.5</v>
       </c>
       <c r="F2">
-        <v>0.5491865430011136</v>
+        <v>0.5517173058659618</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>37.5</v>
       </c>
       <c r="F3">
-        <v>1.337388535290631</v>
+        <v>1.072725448542408</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1492,27 +1492,27 @@
         <v>37.5</v>
       </c>
       <c r="F4">
-        <v>0.9499616917794748</v>
+        <v>1.075887403236932</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>1.803763680707633</v>
+        <v>3.695230659141776</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,99 +1520,99 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>1.894804144796328</v>
+        <v>4.030571754325861</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>5.125631466033672</v>
+        <v>4.992135481862261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>2.467652036887471</v>
+        <v>4.211710889606181</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9">
-        <v>5.789483081472292</v>
+        <v>10.74324044592336</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.875676665862682</v>
+        <v>11.81980536374715</v>
       </c>
     </row>
   </sheetData>
